--- a/demo.xlsx
+++ b/demo.xlsx
@@ -16,23 +16,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>https://www.youtube.com/</t>
+    <t>網址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=-M41WaGzbMU</t>
+    <t>https://www.youtube.com/watch?v=wFqUAw_NYvs&amp;list=RD3Y0Ut5ozaKs&amp;index=7</t>
   </si>
   <si>
-    <t>https://www.facebook.com/</t>
+    <t>https://www.youtube.com/watch?v=YkLyTXJYwgI&amp;index=8&amp;list=RD3Y0Ut5ozaKs</t>
   </si>
   <si>
-    <t>https://blog.xuite.net/hankohya34/blog/58188192-%E5%9C%A8%E7%B6%B2%E9%A0%81%E4%B8%8A%E7%94%A2%E7%94%9FQRCode%E5%9C%96%E7%89%87+PHP%E7%89%88</t>
+    <t>https://www.youtube.com/watch?v=FuDdstaZXdw&amp;index=11&amp;list=RD3Y0Ut5ozaKs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -40,6 +41,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
@@ -65,8 +73,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -368,30 +377,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
